--- a/experiments/capital/bert-base-cased_15/99/correct_predictions.xlsx
+++ b/experiments/capital/bert-base-cased_15/99/correct_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Account not logged in . Flight altitude and distance restricted to nnn and nnn . Check and log in .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Account not logged in</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Account not logged in . Flight altitude and distance restricted to nnn and nnn . Check and log in .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Check and log in</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15-18</t>
+          <t>8-12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Advanced RTH Image Transmission Recovered . Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Advanced RTH Image Transmission Recovered . Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -651,17 +651,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Current flight speed is nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,27 +701,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
+          <t>Aircraft antenna satellite signal searching error . Fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Press C2 to exit</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
+          <t>Aircraft antenna satellite signal searching error . Fly with caution .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -761,27 +761,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -791,32 +791,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+          <t>Aircraft Core Board Overheated .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,51 +857,51 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Aircraft flight control locked .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,46 +917,46 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
+          <t>Aircraft flight control obtained by remote controller B .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
+          <t>Aircraft flight control unlocked .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1007,21 +1007,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1037,26 +1037,26 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1067,21 +1067,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped . You can decelerate the descending speed and avoid obstacles using sticks .</t>
+          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12-22</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1097,51 +1097,51 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14-26</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,26 +1157,26 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8-12</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1187,51 +1187,51 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft is entering a restricted area .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13-27</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RTH Altitude is 30m</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>14-28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,11 +1247,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1277,51 +1277,51 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point .</t>
+          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft is returning to the Home Point . RTH Altitude is nnn . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>13-27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,51 +1337,51 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft is returning to the Home Point . RTH Altitude is nnn . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated . Automatically returning to home .</t>
+          <t>Aircraft is returning to the Home Point . RTH Altitude is nnn . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1397,51 +1397,51 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated . Automatically returning to home .</t>
+          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Automatically returning to home</t>
+          <t>please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode .</t>
+          <t>Aircraft power insufficient . Fly with caution .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1457,81 +1457,81 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft too Far . Cannot enter Follow Me Mode .</t>
+          <t>Aircraft power insufficient . Fly with caution .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft too Far</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft too Far . Cannot enter Follow Me Mode .</t>
+          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cannot enter Follow Me Mode</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,21 +1547,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1577,201 +1577,201 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>API Automatic Return Home .</t>
+          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone . RTH may be affected . Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone . RTH may be affected . Fly with caution .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone . RTH may be affected . Fly with caution .</t>
+          <t>Aircraft will automatically descend in nnn .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RTH may be affected</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Attitude is too large . Backward Obstacle Sensing is not functioning .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1787,81 +1787,81 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Attitude is too large . Backward Obstacle Sensing is not functioning .</t>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Attitude is too large</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Auto landing initiated .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off .</t>
+          <t>Ambient Light too Weak .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1877,51 +1877,51 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning .</t>
+          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>please descend to a safer altitude</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>APAS has been enabled .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1937,21 +1937,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Auxiliary Bottom Light set to automatic mode .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1967,51 +1967,51 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Battery Alert . Battery installation error . Please check the batteries are inserted correctly .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Battery Alert</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Battery Alert . Battery installation error . Please check the batteries are inserted correctly .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Please check the batteries are inserted correctly</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Battery Alert . Battery installation error . Please check the batteries are inserted correctly .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Battery installation error</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2057,81 +2057,81 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Battery cell broken , please replace the battery .</t>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Battery cell broken</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>16-18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Battery cell broken , please replace the battery .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>please replace the battery</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Battery error . Aircraft returning to home automatically .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Battery error</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2147,21 +2147,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Battery error . Aircraft returning to home automatically .</t>
+          <t>Battery cell broken , please replace the battery .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Aircraft returning to home automatically</t>
+          <t>Battery cell broken</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2177,116 +2177,116 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery cell broken , please replace the battery .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>please replace the battery</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Battery power low . Check battery status and charge or warm up battery .</t>
+          <t>Battery nnn requires maintenance .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Battery power low</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2297,111 +2297,111 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Battery power low . Check battery status and charge or warm up battery .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Check battery status and charge or warm up battery</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2417,21 +2417,21 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2447,21 +2447,21 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Battery: Low Voltage Protection .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2477,51 +2477,51 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2537,21 +2537,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode . Enable Multiple Flight Modes in Settings menu to change .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Enable Multiple Flight Modes in Settings menu to change</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6-14</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2567,21 +2567,21 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode . Enable Multiple Flight Modes in Settings menu to change .</t>
+          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2597,51 +2597,51 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack .</t>
+          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject .</t>
+          <t>Camera RCAM not connected . Image quality affected . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2657,21 +2657,21 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2687,21 +2687,21 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode . Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2717,21 +2717,21 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode . Turn on "Multiple Flight Modes" to enable Atti and Sport Modes .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2747,26 +2747,26 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cannot track subject : No image . Please retry .</t>
+          <t>Camera storage full .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2777,46 +2777,46 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cannot track subject : No image . Please retry .</t>
+          <t>Cancel Return-to-Home Failed .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Please retry</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cannot track subject : No image . Please retry .</t>
+          <t>Cannot Identify Subject .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2837,21 +2837,21 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
+          <t>Capture Failed . Stick movement detected . Panorama has stopped .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2867,26 +2867,26 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
+          <t>Capture Failed . Stick movement detected . Panorama has stopped .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Subject too Large</t>
+          <t>Stick movement detected</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2897,51 +2897,51 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
+          <t>Capture Failed . Stick movement detected . Panorama has stopped .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Move Away and retry</t>
+          <t>Panorama has stopped</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
+          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cannot track subject</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2957,26 +2957,26 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
+          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Subject too Small</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2987,81 +2987,81 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
+          <t>Capture Failed . The aircraft is moving . Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Get Closer and retry</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Capture Failed . Insufficient storage space . Cannot shoot panorama .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Capture Failed . Insufficient storage space . Cannot shoot panorama .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Insufficient storage space</t>
+          <t>Check whether propellers are installed correctly</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3071,27 +3071,27 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Capture Failed . Insufficient storage space . Cannot shoot panorama .</t>
+          <t>Command Failed .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3107,16 +3107,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Command Failed .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3137,161 +3137,161 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>17-23</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Compass error , calibration required .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Compass error</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>25-33</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Compass Error . Compass direction is not the same with IMU .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3317,51 +3317,51 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Compass Error . Compass direction is not the same with IMU .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3377,21 +3377,21 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3407,76 +3407,76 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass data error . Please contact DJI Support .</t>
+          <t>Compass Error . Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass disconnected .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3497,51 +3497,51 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass disconnected .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Compass disconnected</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Error . Compass disconnected .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3557,51 +3557,51 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Redundancy Switch .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Compass Error . Compass Redundancy Switch .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3617,51 +3617,51 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3677,21 +3677,21 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude: nnn .</t>
+          <t>Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3707,7 +3707,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3737,41 +3737,41 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Critical low battery . Aircraft in Auto Power Off Protection . Forced landing in progress .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Aircraft in Auto Power Off Protection</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Critical low battery . Aircraft in Auto Power Off Protection . Forced landing in progress .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3797,76 +3797,76 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Critical low battery . Aircraft in Auto Power Off Protection . Forced landing in progress .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Forced landing in progress</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3887,21 +3887,21 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Critically low power . Aircraft is landing .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Critically low power</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3917,21 +3917,21 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Critically low power . Aircraft is landing .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Aircraft is landing</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3947,21 +3947,21 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Critically Low Power . Aircraft Landing . Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3977,21 +3977,21 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Critically Low Power . Aircraft Landing . Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
+          <t>Data Recorder File Index is 19 .</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Aircraft Landing</t>
+          <t>Data Recorder File Index is 19</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4007,21 +4007,21 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Critically Low Power . Aircraft Landing . Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
+          <t>Data Recorder File Index is 2 .</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Critically Low Power</t>
+          <t>Data Recorder File Index is 2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4037,21 +4037,21 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Data Recorder File Index is 65 .</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Data Recorder File Index is 65</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4067,21 +4067,21 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4097,26 +4097,26 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Current elevation above nnn . Fly with caution .</t>
+          <t>Downlink Restored (after 0m 11s) .</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Current elevation above nnn</t>
+          <t>Downlink Restored (after 0m 11s)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4127,51 +4127,51 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Current elevation above nnn . Fly with caution .</t>
+          <t>Downlink Restored (after 0m 1s) .</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Downlink Restored (after 0m 1s)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4 .</t>
+          <t>Downlink Restored (after 0m 5.6s) .</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4</t>
+          <t>Downlink Restored (after 0m 5.6s)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4187,21 +4187,21 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45 .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4217,171 +4217,171 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46 .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>25-28</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8 .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Downlink Lost .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Downlink Lost</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s) .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s) .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s) .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s)</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4401,17 +4401,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s) .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s)</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4431,47 +4431,47 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s) .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s)</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s) .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s)</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4487,51 +4487,51 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s) .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s)</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4547,21 +4547,21 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution .</t>
+          <t>Executing waypoint mission .</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4581,27 +4581,27 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution .</t>
+          <t>Exited Cruise Control mode .</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -4611,27 +4611,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit .</t>
+          <t>Exited Visual Avoidance System .</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -4641,27 +4641,27 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Please ensure the propellers are installed on the correct motors</t>
+          <t>Exiting GPS mode</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>6-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -4671,17 +4671,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Executing waypoint mission .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4697,37 +4697,37 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4877,21 +4877,21 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Failed to cancel landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4907,26 +4907,26 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -4937,51 +4937,51 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Failed to cancel landing .</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Flight control mode error , cannot start recording QuickShot .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Flight control mode error</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4997,26 +4997,26 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Flight control mode error , cannot start recording QuickShot .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>cannot start recording QuickShot</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5027,51 +5027,51 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Flight height too low .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5087,81 +5087,81 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error . Auto calibration in progress .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5177,51 +5177,51 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error . Auto calibration in progress .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Auto calibration in progress</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5237,51 +5237,51 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Gimbal calibrating .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5297,21 +5297,21 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit .</t>
+          <t>Flight height too low .</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5327,21 +5327,21 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5357,21 +5357,21 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5387,51 +5387,51 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
+          <t>Forward Obstacle Sensing not Responding .</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
+          <t>Forward Obstacle Sensing� not Working .</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn</t>
+          <t>Forward Obstacle Sensing� not Working</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>13-17</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5447,81 +5447,81 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GPS signal weak . Positioning accuracy affected . Fly with caution .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GPS signal weak . Positioning accuracy affected . Fly with caution .</t>
+          <t>Gimbal nnn pitch axis endpoint reached .</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Positioning accuracy affected</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5537,31 +5537,31 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GPS signal weak . Positioning accuracy affected . Fly with caution .</t>
+          <t>Gimbal Pitch Limit Reached .</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Gimbal Pitch Limit Reached</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -5571,22 +5571,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>High altitude . Aircraft braking distance increased and flight time decreased . Fly with caution .</t>
+          <t>Gimbal Roll Limit Reached .</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>High altitude</t>
+          <t>Gimbal Roll Limit Reached</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5597,141 +5597,141 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>High altitude . Aircraft braking distance increased and flight time decreased . Fly with caution .</t>
+          <t>Gimbal Yaw Limit Reached .</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>High wind velocity . Ensure the aircraft remains within your line of sight and fly with caution . High wind velocity . Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>18-20</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>High wind velocity . Ensure the aircraft remains within your line of sight and fly with caution . High wind velocity . Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Fly with caution and land in a safe place ASAP</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>22-31</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>High wind velocity . Ensure the aircraft remains within your line of sight and fly with caution . High wind velocity . Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Ensure the aircraft remains within your line of sight and fly with caution</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>4-16</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>High wind velocity . Ensure the aircraft remains within your line of sight and fly with caution . High wind velocity . Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5741,127 +5741,127 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Fly with caution and land in a safe place ASAP</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5897,21 +5897,21 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5931,42 +5931,42 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5991,17 +5991,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>IMU not calibrated . Calibrate IMU .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6017,16 +6017,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>IMU not calibrated . Calibrate IMU .</t>
+          <t>High Wind Velocity : Fly with caution and ensure the aircraft remains within your line of sight .</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>IMU not calibrated</t>
+          <t>High Wind Velocity</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6051,17 +6051,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>IMU warming up . Wait before taking off .</t>
+          <t>High Wind Velocity : Fly with caution and ensure the aircraft remains within your line of sight .</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Wait before taking off</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-16</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6081,22 +6081,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>In Flight .</t>
+          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>In Flight</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6107,21 +6107,21 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6141,12 +6141,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Home Point Recorded .</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6171,27 +6171,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled . Enable this option in Main Controller Settings if needed .</t>
+          <t>Home Point Recorded . Taking off .</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Enable this option in Main Controller Settings if needed</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6201,17 +6201,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled . Enable this option in Main Controller Settings if needed .</t>
+          <t>Home Point Recorded . Taking off .</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6231,17 +6231,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Landing Canceled .</t>
+          <t>Image transmission signal lost .</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Landing Canceled</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6261,17 +6261,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Landing Gear Paused .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Landing Gear Paused</t>
+          <t>Impact detected</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6287,21 +6287,21 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Landing Protection Activated . Aircraft will decelerate during landing .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Landing Protection Activated</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6311,27 +6311,27 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Landing Protection Activated . Aircraft will decelerate during landing .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Aircraft will decelerate during landing</t>
+          <t>Aircraft stopped</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6347,16 +6347,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6377,21 +6377,21 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6407,51 +6407,51 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Locating Landing Point .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Low battery . Recharge promptly .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Low battery</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6467,21 +6467,21 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Low battery . Recharge promptly .</t>
+          <t>In Flight .</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>In Flight</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6491,27 +6491,27 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Low power , please replace the battery .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>please replace the battery</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6527,21 +6527,21 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Low Power . Returning home .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6557,26 +6557,26 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Low Power . Returning home .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Returning home</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6587,21 +6587,21 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -6611,57 +6611,57 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached . Adjust altitude in MC Settings if required .</t>
+          <t>Landing gear lowered . Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -6677,51 +6677,51 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached . Adjust altitude in MC Settings if required .</t>
+          <t>Landin .</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Adjust altitude in MC Settings if required</t>
+          <t>Landin</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded . Related performance will be affected .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -6737,61 +6737,61 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded . Related performance will be affected .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Related performance will be affected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Lens not connected .</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6801,22 +6801,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -6857,31 +6857,31 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Loading database failed . Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Loading database failed</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -6891,17 +6891,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Motor stuck . Check for objects blocking motor or contact DJI Support for assistance X .</t>
+          <t>Loading database failed . Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Motor stuck</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -6917,51 +6917,51 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Motor stuck . Check for objects blocking motor or contact DJI Support for assistance X .</t>
+          <t>Locating Landing Point .</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Check for objects blocking motor or contact DJI Support for assistance X</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>3-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Motor unable to rotate . Check motor .</t>
+          <t>Low Power . Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Motor unable to rotate</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -6977,56 +6977,56 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Motor unable to rotate . Check motor .</t>
+          <t>Low Power . Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Check motor</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>No SD card . Insert card .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Insert card</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7037,51 +7037,51 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>No SD card . Insert card .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>No SD card</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7097,31 +7097,31 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -7131,17 +7131,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7161,57 +7161,57 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Precision Landing . Rectifying aircraft position .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -7221,17 +7221,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Precision Landing . Rectifying aircraft position .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -7247,21 +7247,21 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Propeller Fell Off .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7271,57 +7271,57 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted . Forward Obstacle Sensing will be automatically switched off .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted . Forward Obstacle Sensing will be automatically switched off .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing will be automatically switched off</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7337,81 +7337,81 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Recharge promptly .</t>
+          <t>Object too far for laser rangefinder .</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Remote controller signal lost .</t>
+          <t>Obstacle Avoidance will be disabled in landing .</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Obstacle Avoidance will be disabled in landing</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7427,21 +7427,21 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7457,21 +7457,21 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7487,31 +7487,31 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>PalmControl in Process .</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Connect to network to obtain mobile device location</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -7521,27 +7521,27 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>13-23</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -7551,17 +7551,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Remote ID error . Connect to network to obtain mobile device location . Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Remote ID error</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -7581,17 +7581,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Returning to the Home Point .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -7607,51 +7607,51 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Right Dial Locked . Lightly press to adjust .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Right Dial Locked</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -7667,21 +7667,21 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Right Dial Locked . Lightly press to adjust .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Lightly press to adjust</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>16-25</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -7697,21 +7697,21 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -7727,46 +7727,46 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>RTH : Cruise .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>RTH : Cruise</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-14</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>RTH : Preascending .</t>
+          <t>Propellers not installed .</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>RTH : Preascending</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7787,51 +7787,51 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received . Please make sure base station antenna is connected to the correct port .</t>
+          <t>Propulsion output has been limited to ensure battery health .</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Please make sure base station antenna is connected to the correct port</t>
+          <t>Propulsion output has been limited to ensure battery health</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>7-18</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received . Please make sure base station antenna is connected to the correct port .</t>
+          <t>Reaching maximum altitude .</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Reaching maximum altitude</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -7847,21 +7847,21 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SD card full . Change card or delete files .</t>
+          <t>Remote controller disconnected from aircraft .</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>SD card full</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -7877,21 +7877,21 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SD card full . Change card or delete files .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -7901,57 +7901,57 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -7967,51 +7967,51 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8027,111 +8027,111 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Starting Smart Track .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>RTH altitude adjusted to nnn .</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8147,141 +8147,141 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Strong Interference . Fly with caution .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Strong Interference . Fly with caution .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8297,51 +8297,51 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Strong wind . Fly with caution .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Strong wind</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8357,61 +8357,61 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Strong wind . Fly with caution .</t>
+          <t>Sensing system is blocked or too close to the obstacle .</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Sensing system is blocked or too close to the obstacle</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
+          <t>Sprayer turned ON .</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Use the RC to control aircraft yaw</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -8421,47 +8421,47 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -8477,21 +8477,21 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -8507,21 +8507,21 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -8537,51 +8537,51 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Tap the screen to focus .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Tap the screen to focus</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -8597,21 +8597,21 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Strong wind warning . Aircraft unable to fly stably . Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Vision sensor error</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -8627,136 +8627,136 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Warnin .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Warnin</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>0-0</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F)</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Warm battery to above 25°C (77F) before flying</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>17-19</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8777,21 +8777,21 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery . Please change the battery .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -8807,51 +8807,51 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery . Please change the battery .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Please change the battery</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Adjust in Main Controller Settings if necessary</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -8867,21 +8867,21 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed .</t>
+          <t>Switched to A (Attitude)-mode .</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -8897,81 +8897,81 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded . Aircraft will decelerate to ensure safety .</t>
+          <t>Switched to S (Sport)-mode .</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Aircraft will decelerate to ensure safety</t>
+          <t>Switched to S (Sport)-mode</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded . Aircraft will decelerate to ensure safety .</t>
+          <t>Tap the screen to focus .</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded</t>
+          <t>Tap the screen to focus</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -8987,81 +8987,81 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
+          <t>Upward Obstacle Detected .</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode and hovering may be unstable</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9071,22 +9071,22 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9107,111 +9107,111 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>3-19</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
+          <t>Warnin .</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
+          <t>Warnin</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>3-19</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9227,21 +9227,21 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Weak signal . Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight . Downlink Lost .</t>
+          <t>Warning: Command Failed .</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Downlink Lost</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>21-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -9257,21 +9257,21 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9287,149 +9287,269 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
+          <t>Weak GPS signal . Positioning accuracy may be compromised . Please fly with caution .</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D)</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft . Please step farther away .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft . Please step farther away .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Please step farther away</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>167</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>3-15</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>168</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Yaw Error .</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Yaw Error</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>169</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>169</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Please fly away or land with caution</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
